--- a/biology/Médecine/Campus_MedTech/Campus_MedTech.xlsx
+++ b/biology/Médecine/Campus_MedTech/Campus_MedTech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Campus MedTech (campus des technologies médicales) est un regroupement d'organismes de recherche situé sur le site de l'Hôpital civil de Strasbourg.
-Le but du projet est de rapprocher des acteurs de la recherche afin de favoriser le transfert de compétences dans le domaine des technologies médicales[1].
-Le campus accueillera des lieux de soins, des laboratoires de recherche, des lieux de formation et des pépinières d'entreprises[2],[3].
-Le projet est piloté par[4] :
+Le but du projet est de rapprocher des acteurs de la recherche afin de favoriser le transfert de compétences dans le domaine des technologies médicales.
+Le campus accueillera des lieux de soins, des laboratoires de recherche, des lieux de formation et des pépinières d'entreprises,.
+Le projet est piloté par :
 Strasbourg Eurométropole
 État français
 Alsace Biovalley
 Hôpitaux universitaires de Strasbourg
 Université de Strasbourg
-Le projet est soutenu par la Fondation Université de Strasbourg[5].
+Le projet est soutenu par la Fondation Université de Strasbourg.
 </t>
         </is>
       </c>
@@ -520,10 +532,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strasbourg Eurométropole a acquis plusieurs terrains proches de l'hôpital civil en vue de préparer l'implantation du Campus MedTech[6].
-La transaction de 18 000 000 euros a permis d'acquérir l'équivalent de 3 hectares[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strasbourg Eurométropole a acquis plusieurs terrains proches de l'hôpital civil en vue de préparer l'implantation du Campus MedTech.
+La transaction de 18 000 000 euros a permis d'acquérir l'équivalent de 3 hectares.
 </t>
         </is>
       </c>
@@ -552,7 +566,9 @@
           <t>Composition[8]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Institut hospitalo-universitaire de Strasbourg
 Institut des Implants Biomédicaux
